--- a/Dados de Contas/Extrato Bradesco Ptu 987 56681-0/Extrato Bradesco PF Ptu 2022.xlsx
+++ b/Dados de Contas/Extrato Bradesco Ptu 987 56681-0/Extrato Bradesco PF Ptu 2022.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="34">
   <si>
     <t xml:space="preserve">DATA</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t xml:space="preserve">SAQUE C/C BDN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descobrir</t>
   </si>
   <si>
     <t xml:space="preserve">Saque</t>
@@ -279,8 +276,8 @@
   </sheetPr>
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B54" activeCellId="0" sqref="B54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D44" activeCellId="0" sqref="D10:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -513,7 +510,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
@@ -559,7 +556,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
@@ -625,7 +622,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>12</v>
@@ -648,7 +645,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>12</v>
@@ -674,7 +671,7 @@
         <v>18</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -720,7 +717,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -760,13 +757,13 @@
         <v>-207</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -806,13 +803,13 @@
         <v>-51</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -835,7 +832,7 @@
         <v>18</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -875,13 +872,13 @@
         <v>-250</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -927,7 +924,7 @@
         <v>18</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -967,13 +964,13 @@
         <v>-183</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -990,13 +987,13 @@
         <v>165.69</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>13</v>
@@ -1036,13 +1033,13 @@
         <v>41.32</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>13</v>
@@ -1059,13 +1056,13 @@
         <v>51</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>13</v>
@@ -1082,13 +1079,13 @@
         <v>250.01</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>13</v>
@@ -1111,7 +1108,7 @@
         <v>18</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1157,7 +1154,7 @@
         <v>18</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1197,13 +1194,13 @@
         <v>-424</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1243,13 +1240,13 @@
         <v>-425</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1266,13 +1263,13 @@
         <v>424.01</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>13</v>
@@ -1295,7 +1292,7 @@
         <v>18</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1335,10 +1332,10 @@
         <v>12.37</v>
       </c>
       <c r="C46" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>12</v>
@@ -1358,13 +1355,13 @@
         <v>-0.89</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="E47" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1381,13 +1378,13 @@
         <v>-62.91</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1404,10 +1401,10 @@
         <v>52.42</v>
       </c>
       <c r="C49" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>12</v>
@@ -1450,13 +1447,13 @@
         <v>62.91</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>13</v>
@@ -1473,13 +1470,13 @@
         <v>-139.44</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1519,13 +1516,13 @@
         <v>-140.44</v>
       </c>
       <c r="C54" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="E54" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1542,13 +1539,13 @@
         <v>139.45</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>13</v>
@@ -1565,13 +1562,13 @@
         <v>-199.01</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1588,13 +1585,13 @@
         <v>200</v>
       </c>
       <c r="C57" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>13</v>
@@ -1634,13 +1631,13 @@
         <v>199.01</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>13</v>
@@ -1657,13 +1654,13 @@
         <v>-102.68</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1703,13 +1700,13 @@
         <v>-60</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1749,13 +1746,13 @@
         <v>-92.77</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1772,10 +1769,10 @@
         <v>92.77</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>16</v>
@@ -1795,13 +1792,13 @@
         <v>-168.09</v>
       </c>
       <c r="C66" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="E66" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1864,13 +1861,13 @@
         <v>60</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>13</v>
@@ -1887,13 +1884,13 @@
         <v>92.77</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>13</v>
@@ -1910,13 +1907,13 @@
         <v>102.7</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>13</v>
@@ -1939,7 +1936,7 @@
         <v>18</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -1979,13 +1976,13 @@
         <v>-126</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2025,13 +2022,13 @@
         <v>-126.42</v>
       </c>
       <c r="C76" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="E76" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2048,13 +2045,13 @@
         <v>126</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>13</v>

--- a/Dados de Contas/Extrato Bradesco Ptu 987 56681-0/Extrato Bradesco PF Ptu 2022.xlsx
+++ b/Dados de Contas/Extrato Bradesco Ptu 987 56681-0/Extrato Bradesco PF Ptu 2022.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="35">
   <si>
     <t xml:space="preserve">DATA</t>
   </si>
@@ -46,21 +46,27 @@
     <t xml:space="preserve">ARCHIVE</t>
   </si>
   <si>
+    <t xml:space="preserve">Pedro Lucas Silva Câmara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferência Entre Contas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extrato Bradesco PF Ptu 2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">REALTEC SOLUCOES LTDA</t>
   </si>
   <si>
     <t xml:space="preserve">Salário</t>
   </si>
   <si>
-    <t xml:space="preserve">Pix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Despesa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extrato Bradesco PF Ptu 2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">Transferência Recebida</t>
   </si>
   <si>
@@ -70,9 +76,6 @@
     <t xml:space="preserve">Pedro Lucas Silva Câm</t>
   </si>
   <si>
-    <t xml:space="preserve">Transferência Entre Contas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Transferência Pix Recebida</t>
   </si>
   <si>
@@ -97,7 +100,7 @@
     <t xml:space="preserve">GASTOS CARTAO DE CREDITO</t>
   </si>
   <si>
-    <t xml:space="preserve">Cartão Crédito (Bradesco) </t>
+    <t xml:space="preserve">Cartão Crédito (Bradesco)</t>
   </si>
   <si>
     <t xml:space="preserve">Fatura Cartão Crédito</t>
@@ -277,7 +280,7 @@
   <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D44" activeCellId="0" sqref="D10:D44"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -343,16 +346,16 @@
         <v>1212</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
@@ -366,16 +369,16 @@
         <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
@@ -389,10 +392,10 @@
         <v>-30</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
@@ -435,16 +438,16 @@
         <v>1212</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>11</v>
@@ -481,16 +484,16 @@
         <v>1212</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>11</v>
@@ -504,13 +507,13 @@
         <v>-20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
@@ -527,16 +530,16 @@
         <v>20</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>11</v>
@@ -550,13 +553,13 @@
         <v>-20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
@@ -573,16 +576,16 @@
         <v>20</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>11</v>
@@ -596,10 +599,10 @@
         <v>-2324.15</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>9</v>
@@ -619,16 +622,16 @@
         <v>1082.15</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>11</v>
@@ -642,16 +645,16 @@
         <v>1242</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>11</v>
@@ -665,13 +668,13 @@
         <v>-20</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -688,16 +691,16 @@
         <v>20</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>11</v>
@@ -711,13 +714,13 @@
         <v>-20</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -734,16 +737,16 @@
         <v>20</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>11</v>
@@ -757,13 +760,13 @@
         <v>-207</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -780,16 +783,16 @@
         <v>208</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>11</v>
@@ -803,13 +806,13 @@
         <v>-51</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -826,13 +829,13 @@
         <v>-20</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -849,16 +852,16 @@
         <v>71</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>11</v>
@@ -872,13 +875,13 @@
         <v>-250</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -895,16 +898,16 @@
         <v>250</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>11</v>
@@ -918,13 +921,13 @@
         <v>-50</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -941,16 +944,16 @@
         <v>67.31</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>11</v>
@@ -964,13 +967,13 @@
         <v>-183</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -987,16 +990,16 @@
         <v>165.69</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>11</v>
@@ -1010,10 +1013,10 @@
         <v>-343.33</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>9</v>
@@ -1033,16 +1036,16 @@
         <v>41.32</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>11</v>
@@ -1056,16 +1059,16 @@
         <v>51</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>11</v>
@@ -1079,16 +1082,16 @@
         <v>250.01</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>11</v>
@@ -1102,13 +1105,13 @@
         <v>-50</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1125,16 +1128,16 @@
         <v>50</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>11</v>
@@ -1148,13 +1151,13 @@
         <v>-50</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1171,16 +1174,16 @@
         <v>50</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>11</v>
@@ -1194,13 +1197,13 @@
         <v>-424</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1217,16 +1220,16 @@
         <v>425</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>11</v>
@@ -1240,13 +1243,13 @@
         <v>-425</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1263,16 +1266,16 @@
         <v>424.01</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>11</v>
@@ -1286,13 +1289,13 @@
         <v>-20</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1309,16 +1312,16 @@
         <v>20</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>11</v>
@@ -1332,16 +1335,16 @@
         <v>12.37</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>11</v>
@@ -1355,13 +1358,13 @@
         <v>-0.89</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1378,13 +1381,13 @@
         <v>-62.91</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1401,16 +1404,16 @@
         <v>52.42</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>11</v>
@@ -1424,10 +1427,10 @@
         <v>-63.91</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>9</v>
@@ -1447,16 +1450,16 @@
         <v>62.91</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>11</v>
@@ -1470,13 +1473,13 @@
         <v>-139.44</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1493,16 +1496,16 @@
         <v>140.44</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>11</v>
@@ -1516,13 +1519,13 @@
         <v>-140.44</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1539,16 +1542,16 @@
         <v>139.45</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>11</v>
@@ -1562,13 +1565,13 @@
         <v>-199.01</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1585,16 +1588,16 @@
         <v>200</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>11</v>
@@ -1608,10 +1611,10 @@
         <v>-200</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>9</v>
@@ -1631,16 +1634,16 @@
         <v>199.01</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>11</v>
@@ -1654,13 +1657,13 @@
         <v>-102.68</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1677,16 +1680,16 @@
         <v>103.67</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>11</v>
@@ -1700,13 +1703,13 @@
         <v>-60</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1723,16 +1726,16 @@
         <v>60</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>11</v>
@@ -1746,13 +1749,13 @@
         <v>-92.77</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1769,16 +1772,16 @@
         <v>92.77</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>11</v>
@@ -1792,13 +1795,13 @@
         <v>-168.09</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1815,10 +1818,10 @@
         <v>-97.22</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>9</v>
@@ -1838,16 +1841,16 @@
         <v>8.84</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>11</v>
@@ -1861,16 +1864,16 @@
         <v>60</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>11</v>
@@ -1884,16 +1887,16 @@
         <v>92.77</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>11</v>
@@ -1907,16 +1910,16 @@
         <v>102.7</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>11</v>
@@ -1930,13 +1933,13 @@
         <v>-20</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -1953,16 +1956,16 @@
         <v>20</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>11</v>
@@ -1976,13 +1979,13 @@
         <v>-126</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -1999,16 +2002,16 @@
         <v>127</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>11</v>
@@ -2022,13 +2025,13 @@
         <v>-126.42</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2045,16 +2048,16 @@
         <v>126</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>11</v>
